--- a/parkside_products.xlsx
+++ b/parkside_products.xlsx
@@ -471,11 +471,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -493,11 +489,7 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>29/08/2024</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -515,11 +507,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -537,11 +525,7 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>29/08/2024</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -559,11 +543,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -581,11 +561,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -603,11 +579,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -625,11 +597,7 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>29/08/2024</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -647,11 +615,7 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>29/08/2024</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -669,11 +633,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -691,11 +651,7 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>29/08/2024</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -713,11 +669,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -735,11 +687,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -757,11 +705,7 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>29/08/2024</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -779,11 +723,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -801,11 +741,7 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>29/08/2024</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -823,11 +759,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -845,11 +777,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -867,11 +795,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -889,11 +813,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -911,11 +831,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -933,11 +849,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -955,11 +867,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -977,11 +885,7 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>29/08/2024</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -999,11 +903,7 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>29/08/2024</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1021,11 +921,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1043,11 +939,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1065,11 +957,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1087,11 +975,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1109,11 +993,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1131,11 +1011,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1153,11 +1029,7 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>05/09/2024</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parkside_products.xlsx
+++ b/parkside_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>End Date</t>
         </is>
       </c>
     </row>
@@ -472,6 +477,7 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -490,6 +496,7 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -508,6 +515,7 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -526,6 +534,7 @@
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -544,6 +553,7 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -562,6 +572,7 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -580,6 +591,7 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -598,6 +610,7 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -616,6 +629,7 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -634,6 +648,7 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -652,6 +667,7 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -670,6 +686,7 @@
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -688,6 +705,7 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -706,6 +724,7 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -724,6 +743,7 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -742,6 +762,7 @@
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -760,6 +781,7 @@
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -778,6 +800,7 @@
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -796,6 +819,7 @@
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -814,6 +838,7 @@
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -832,6 +857,7 @@
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -850,6 +876,7 @@
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -868,6 +895,7 @@
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -886,6 +914,7 @@
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -904,6 +933,7 @@
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -922,6 +952,7 @@
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -940,6 +971,7 @@
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -958,6 +990,7 @@
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -976,6 +1009,7 @@
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -994,6 +1028,7 @@
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1012,6 +1047,7 @@
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1030,6 +1066,7 @@
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parkside_products.xlsx
+++ b/parkside_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Start Date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>End Date</t>
+          <t>Date</t>
         </is>
       </c>
     </row>
@@ -476,8 +471,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -495,8 +493,11 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -514,8 +515,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -533,8 +537,11 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -552,8 +559,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -571,8 +581,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -590,8 +603,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -609,8 +625,11 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -628,8 +647,11 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -647,8 +669,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -666,8 +691,11 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -685,8 +713,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -704,8 +735,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -723,8 +757,11 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -742,8 +779,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -761,8 +801,11 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -780,8 +823,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -799,8 +845,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -818,8 +867,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -837,8 +889,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -856,8 +911,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -875,8 +933,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -894,8 +955,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -913,8 +977,11 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -932,8 +999,11 @@
           <t>Από 29.08.</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>29/08/2024</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -951,8 +1021,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -970,8 +1043,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -989,8 +1065,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1008,8 +1087,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1027,8 +1109,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1046,8 +1131,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1065,8 +1153,11 @@
           <t>Από 05.09.</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
